--- a/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">General Empty</t>
   </si>
   <si>
-    <t xml:space="preserve">smart_attribute</t>
+    <t xml:space="preserve">smart_attribute_state</t>
   </si>
   <si>
     <t xml:space="preserve">additional display</t>
@@ -259,15 +259,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">smart_attribute_state</t>
   </si>
   <si>
-    <t xml:space="preserve">additional display</t>
+    <t xml:space="preserve">additional display,stock</t>
   </si>
 </sst>
 </file>
@@ -259,14 +259,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="exclusion_rules" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="store_policy" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -58,7 +59,37 @@
     <t xml:space="preserve">smart_attribute_state</t>
   </si>
   <si>
-    <t xml:space="preserve">additional display,stock</t>
+    <t xml:space="preserve">additional display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hero SKU Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK COUNTRY SNACKS, AKSAM PALUSZKI, LAJKONIK PALUSZKI, ALKA ELEPHANT, RUMPLERS, TABITHA, CHEF'S LARDER, BOROMIR, COFRESH, JIFFY POP, CROCO, THE CURATORS, FRESHERS, FUDCO, GEFEN, GINNI'S, OH MY GURU!, HALDIRAMS, HALDIRAMS SNACKS, INDIE BAY SNACKS, INNATE, JACK-LNK'S, EAZY-PP-PPCRN, ZWEIFEL CRISPS, HUNKY DORYS CRISPS, LAJKONIK JUNIOR, LOVE CHIN CHIN, NISHAS SNACKS, NUTELLA, OSEM SAVOURY SNACK, OUR LITTLE REBELL!ON, EPIC, CRAWFORDS, FLIPZ, OATIS, RYMUT SNACKS, GINCO, SUNSHINE SNACKS, JAY'S, MIDLAND SNACKS, RED MILL SAVOURY SNACKS, SENSIBLE PORTIONS, VISCONTI SNACKS, WELL &amp; TRULY SNACKS, WILD WEST, WILDING'S, BLUE DRAGON, BEPPS, BLUE DIAMOND, COFRESH SNACKS, SCHAR, OLD EL PASO, PLANTERS, LINWOODS, CYPRESSA, KOHINOOR SNACKS, KOIKEYA, PALUSZKI, LORENZ CRISPS, MCCOLGAN, ITSU, NAIRNS, NATURES STORE SNACKS, NIM'S, BAMBA SNACKS, BISSLI SNACKS, SHARWOODS, MR PORKY SNACKS, TYGRYSKI, THE REAL PORK CRACKLING CO SNACKS, THE SNAFFLING PIG CO, WHITWORTHS, YUM &amp; YAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Segment Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Sub Segment Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
   </si>
 </sst>
 </file>
@@ -154,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +208,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -256,18 +295,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,6 +368,77 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -335,4 +448,85 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -38,6 +38,24 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smart_attribute_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hero SKU Availability - SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include</t>
   </si>
   <si>
@@ -47,28 +65,61 @@
     <t xml:space="preserve">Primary Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smart_attribute_state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional display</t>
+    <t xml:space="preserve">Sensations Greater Linear Space vs Kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doritos Greater Linear space vs Pringles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Full Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Full Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hero SKU SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Segment SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK COUNTRY SNACKS, AKSAM PALUSZKI, LAJKONIK PALUSZKI, ALKA ELEPHANT, RUMPLERS, TABITHA, CHEF'S LARDER, BOROMIR, COFRESH, JIFFY POP, CROCO, THE CURATORS, FRESHERS, FUDCO, GEFEN, GINNI'S, OH MY GURU!, HALDIRAMS, HALDIRAMS SNACKS, INDIE BAY SNACKS, INNATE, JACK-LNK'S, EAZY-PP-PPCRN, ZWEIFEL CRISPS, HUNKY DORYS CRISPS, LAJKONIK JUNIOR, LOVE CHIN CHIN, NISHAS SNACKS, NUTELLA, OSEM SAVOURY SNACK, OUR LITTLE REBELL!ON, EPIC, CRAWFORDS, FLIPZ, OATIS, RYMUT SNACKS, GINCO, SUNSHINE SNACKS, JAY'S, MIDLAND SNACKS, RED MILL SAVOURY SNACKS, SENSIBLE PORTIONS, VISCONTI SNACKS, WELL &amp; TRULY SNACKS, WILD WEST, WILDING'S, BLUE DRAGON, BEPPS, BLUE DIAMOND, COFRESH SNACKS, SCHAR, OLD EL PASO, PLANTERS, LINWOODS, CYPRESSA, KOHINOOR SNACKS, KOIKEYA, PALUSZKI, LORENZ CRISPS, MCCOLGAN, ITSU, NAIRNS, NATURES STORE SNACKS, NIM'S, BAMBA SNACKS, BISSLI SNACKS, SHARWOODS, MR PORKY SNACKS, TYGRYSKI, THE REAL PORK CRACKLING CO SNACKS, THE SNAFFLING PIG CO, WHITWORTHS, YUM &amp; YAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Price Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings per Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Space Per Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_type</t>
   </si>
   <si>
     <t xml:space="preserve">Hero SKU Space to Sales Index</t>
   </si>
   <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK COUNTRY SNACKS, AKSAM PALUSZKI, LAJKONIK PALUSZKI, ALKA ELEPHANT, RUMPLERS, TABITHA, CHEF'S LARDER, BOROMIR, COFRESH, JIFFY POP, CROCO, THE CURATORS, FRESHERS, FUDCO, GEFEN, GINNI'S, OH MY GURU!, HALDIRAMS, HALDIRAMS SNACKS, INDIE BAY SNACKS, INNATE, JACK-LNK'S, EAZY-PP-PPCRN, ZWEIFEL CRISPS, HUNKY DORYS CRISPS, LAJKONIK JUNIOR, LOVE CHIN CHIN, NISHAS SNACKS, NUTELLA, OSEM SAVOURY SNACK, OUR LITTLE REBELL!ON, EPIC, CRAWFORDS, FLIPZ, OATIS, RYMUT SNACKS, GINCO, SUNSHINE SNACKS, JAY'S, MIDLAND SNACKS, RED MILL SAVOURY SNACKS, SENSIBLE PORTIONS, VISCONTI SNACKS, WELL &amp; TRULY SNACKS, WILD WEST, WILDING'S, BLUE DRAGON, BEPPS, BLUE DIAMOND, COFRESH SNACKS, SCHAR, OLD EL PASO, PLANTERS, LINWOODS, CYPRESSA, KOHINOOR SNACKS, KOIKEYA, PALUSZKI, LORENZ CRISPS, MCCOLGAN, ITSU, NAIRNS, NATURES STORE SNACKS, NIM'S, BAMBA SNACKS, BISSLI SNACKS, SHARWOODS, MR PORKY SNACKS, TYGRYSKI, THE REAL PORK CRACKLING CO SNACKS, THE SNAFFLING PIG CO, WHITWORTHS, YUM &amp; YAY</t>
+    <t xml:space="preserve">TT</t>
   </si>
   <si>
     <t xml:space="preserve">Brand Space to Sales Index</t>
@@ -81,15 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">PepsiCo Sub Segment Space to Sales Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
   </si>
 </sst>
 </file>
@@ -185,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,14 +238,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -295,20 +329,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -326,119 +360,286 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -458,14 +659,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -473,51 +674,51 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Data/Inclusion_Exclusion_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -38,6 +38,15 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exclude</t>
   </si>
   <si>
@@ -53,43 +62,7 @@
     <t xml:space="preserve">additional display</t>
   </si>
   <si>
-    <t xml:space="preserve">Hero SKU Availability - SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensations Greater Linear Space vs Kettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doritos Greater Linear space vs Pringles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Full Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Full Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hero SKU SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Brand SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PepsiCo Segment SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Blocking</t>
+    <t xml:space="preserve">Hero SKU Space to Sales Index</t>
   </si>
   <si>
     <t xml:space="preserve">brand_name</t>
@@ -98,16 +71,16 @@
     <t xml:space="preserve">BLACK COUNTRY SNACKS, AKSAM PALUSZKI, LAJKONIK PALUSZKI, ALKA ELEPHANT, RUMPLERS, TABITHA, CHEF'S LARDER, BOROMIR, COFRESH, JIFFY POP, CROCO, THE CURATORS, FRESHERS, FUDCO, GEFEN, GINNI'S, OH MY GURU!, HALDIRAMS, HALDIRAMS SNACKS, INDIE BAY SNACKS, INNATE, JACK-LNK'S, EAZY-PP-PPCRN, ZWEIFEL CRISPS, HUNKY DORYS CRISPS, LAJKONIK JUNIOR, LOVE CHIN CHIN, NISHAS SNACKS, NUTELLA, OSEM SAVOURY SNACK, OUR LITTLE REBELL!ON, EPIC, CRAWFORDS, FLIPZ, OATIS, RYMUT SNACKS, GINCO, SUNSHINE SNACKS, JAY'S, MIDLAND SNACKS, RED MILL SAVOURY SNACKS, SENSIBLE PORTIONS, VISCONTI SNACKS, WELL &amp; TRULY SNACKS, WILD WEST, WILDING'S, BLUE DRAGON, BEPPS, BLUE DIAMOND, COFRESH SNACKS, SCHAR, OLD EL PASO, PLANTERS, LINWOODS, CYPRESSA, KOHINOOR SNACKS, KOIKEYA, PALUSZKI, LORENZ CRISPS, MCCOLGAN, ITSU, NAIRNS, NATURES STORE SNACKS, NIM'S, BAMBA SNACKS, BISSLI SNACKS, SHARWOODS, MR PORKY SNACKS, TYGRYSKI, THE REAL PORK CRACKLING CO SNACKS, THE SNAFFLING PIG CO, WHITWORTHS, YUM &amp; YAY</t>
   </si>
   <si>
-    <t xml:space="preserve">Price Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Price Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facings per Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Space Per Product</t>
+    <t xml:space="preserve">Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Segment Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Sub Segment Space to Sales Index</t>
   </si>
   <si>
     <t xml:space="preserve">additional_attribute_1</t>
@@ -116,22 +89,7 @@
     <t xml:space="preserve">store_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Hero SKU Space to Sales Index</t>
-  </si>
-  <si>
     <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Space to Sales Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Brand Space to Sales Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PepsiCo Segment Space to Sales Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PepsiCo Sub Segment Space to Sales Index</t>
   </si>
 </sst>
 </file>
@@ -227,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +196,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -329,20 +295,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9554655870445"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -360,286 +326,119 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -659,14 +458,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -674,51 +473,51 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
